--- a/Webserviceliste.xlsx
+++ b/Webserviceliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8186CF6-A859-495B-A1B9-BBE57B98A471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC3DCC-C169-46B6-9883-28311608B7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="255" windowWidth="14745" windowHeight="16065" xr2:uid="{A93DA0F6-8782-4F7C-BCA0-5019C59D00CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A93DA0F6-8782-4F7C-BCA0-5019C59D00CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>URL</t>
   </si>
@@ -124,6 +124,57 @@
   </si>
   <si>
     <t>404, 401</t>
+  </si>
+  <si>
+    <t>/api/news</t>
+  </si>
+  <si>
+    <t>/api/news/{id}</t>
+  </si>
+  <si>
+    <t>newNews</t>
+  </si>
+  <si>
+    <t>idNews</t>
+  </si>
+  <si>
+    <t>/api/holiday</t>
+  </si>
+  <si>
+    <t>/api/holiday/{id}</t>
+  </si>
+  <si>
+    <t>newHoliday</t>
+  </si>
+  <si>
+    <t>[news1, news2, …, newsN]</t>
+  </si>
+  <si>
+    <t>[holiday1, holiday2, …, holidayN]</t>
+  </si>
+  <si>
+    <t>newEmployee</t>
+  </si>
+  <si>
+    <t>updatedEmployee</t>
+  </si>
+  <si>
+    <t>/api/files/{id}</t>
+  </si>
+  <si>
+    <t>/api/files/{id}/{filename}</t>
+  </si>
+  <si>
+    <t>/api/files/{idEmployee}</t>
+  </si>
+  <si>
+    <t>[file1, file2, …, fileN]</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Anmerkungen: Bei den POST-Routen von workingHours, holiday und files wird keine Idvom Server an den Client geschickt, da die Daten in der MongoDb gespeichert werden</t>
   </si>
 </sst>
 </file>
@@ -172,11 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1945367A-EACD-48C6-973F-7B674B6C6414}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -538,8 +592,8 @@
       <c r="D2">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
+      <c r="E2" s="2">
+        <v>401</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -590,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -623,8 +677,8 @@
       <c r="D8">
         <v>200</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
+      <c r="E8" s="2">
+        <v>401</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -654,6 +708,9 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
       <c r="D10">
         <v>201</v>
       </c>
@@ -672,10 +729,10 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,8 +742,11 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
       <c r="D12">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -702,8 +762,8 @@
       <c r="D14">
         <v>200</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
+      <c r="E14" s="2">
+        <v>401</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -734,13 +794,13 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -751,13 +811,191 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>401</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>201</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>204</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>201</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>204</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2">
+        <v>401</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>201</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>204</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:G33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
